--- a/0_1_Output_Data/5_ifoCAST_error_series_GVA_full_since_2022/ifoCAst_errors_full_latest_since_2022_GVA.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_GVA_full_since_2022/ifoCAst_errors_full_latest_since_2022_GVA.xlsx
@@ -693,7 +693,7 @@
         <v>-0.2827377510363498</v>
       </c>
       <c r="C2">
-        <v>0.6917595708727402</v>
+        <v>0.7012562470360878</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -704,7 +704,7 @@
         <v>-0.3339644000363498</v>
       </c>
       <c r="C3">
-        <v>1.01983578087274</v>
+        <v>1.029332457036088</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -712,7 +712,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>1.47593188287274</v>
+        <v>1.485428559036088</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -720,10 +720,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>1.82244659987274</v>
+        <v>1.831943276036088</v>
       </c>
       <c r="D5">
-        <v>0.5768032504259835</v>
+        <v>0.55793444658209</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -731,10 +731,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>1.68749419387274</v>
+        <v>1.696990870036088</v>
       </c>
       <c r="D6">
-        <v>0.4630429864259835</v>
+        <v>0.44417418258209</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -742,10 +742,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.1547615318727402</v>
+        <v>0.1642582080360878</v>
       </c>
       <c r="D7">
-        <v>-0.5234501085740164</v>
+        <v>-0.54231891241791</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -753,10 +753,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.1662691598727403</v>
+        <v>0.1757658360360879</v>
       </c>
       <c r="C8">
-        <v>-0.6129279025740164</v>
+        <v>-0.63179670641791</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -764,10 +764,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.1808837928727403</v>
+        <v>0.1903804690360879</v>
       </c>
       <c r="C9">
-        <v>0.2601534814259835</v>
+        <v>0.24128467758209</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -775,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>0.4632009824259835</v>
+        <v>0.44433217858209</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -783,10 +783,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>0.6250845884259835</v>
+        <v>0.6062157845820899</v>
       </c>
       <c r="D11">
-        <v>-0.8692087693002357</v>
+        <v>-0.8596988570317647</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -794,10 +794,10 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>1.088701449425983</v>
+        <v>1.06983264558209</v>
       </c>
       <c r="D12">
-        <v>-0.9686075303002357</v>
+        <v>-0.9590976180317647</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -805,10 +805,10 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>0.7590080824259835</v>
+        <v>0.7401392785820899</v>
       </c>
       <c r="D13">
-        <v>-1.052783137300236</v>
+        <v>-1.043273225031765</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -816,10 +816,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.6692890444259836</v>
+        <v>0.65042024058209</v>
       </c>
       <c r="C14">
-        <v>-0.6043264833002358</v>
+        <v>-0.5948165710317647</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -827,10 +827,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.6881010354259836</v>
+        <v>0.66923223158209</v>
       </c>
       <c r="C15">
-        <v>-1.468880585300236</v>
+        <v>-1.459370673031765</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -838,7 +838,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>-1.553433993300236</v>
+        <v>-1.543924081031765</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -846,7 +846,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>-1.206659537300236</v>
+        <v>-1.197149625031765</v>
       </c>
       <c r="D17">
         <v>0.2761568752907124</v>
@@ -857,7 +857,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>-0.8547584633002359</v>
+        <v>-0.8452485510317647</v>
       </c>
       <c r="D18">
         <v>0.2901758192907124</v>
@@ -868,7 +868,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>-1.147112214300236</v>
+        <v>-1.137602302031765</v>
       </c>
       <c r="D19">
         <v>0.03860501029071239</v>
@@ -879,7 +879,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>-1.046637463300236</v>
+        <v>-1.037127551031765</v>
       </c>
       <c r="C20">
         <v>0.1111587992907124</v>
@@ -890,7 +890,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>-1.095357142300236</v>
+        <v>-1.085847230031765</v>
       </c>
       <c r="C21">
         <v>-0.1494795197092876</v>
@@ -912,7 +912,7 @@
         <v>-0.2465114727092876</v>
       </c>
       <c r="D23">
-        <v>0.788328404264559</v>
+        <v>0.7977233685636995</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -923,7 +923,7 @@
         <v>-0.1527522857092876</v>
       </c>
       <c r="D24">
-        <v>1.021733445264559</v>
+        <v>1.031128409563699</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -934,7 +934,7 @@
         <v>0.1761002812907124</v>
       </c>
       <c r="D25">
-        <v>0.982640004264559</v>
+        <v>0.9920349685636995</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -945,7 +945,7 @@
         <v>0.3872948832907124</v>
       </c>
       <c r="D26">
-        <v>1.007430421264559</v>
+        <v>1.0168253855637</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -956,7 +956,7 @@
         <v>0.07584049829071239</v>
       </c>
       <c r="C27">
-        <v>1.044581212264559</v>
+        <v>1.053976176563699</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -967,7 +967,7 @@
         <v>0.0971330122907124</v>
       </c>
       <c r="C28">
-        <v>1.084237634264559</v>
+        <v>1.093632598563699</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -975,7 +975,7 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <v>1.115150976264559</v>
+        <v>1.124545940563699</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -983,10 +983,10 @@
         <v>31</v>
       </c>
       <c r="C30">
-        <v>1.061389726264559</v>
+        <v>1.0707846905637</v>
       </c>
       <c r="D30">
-        <v>0.917316073331129</v>
+        <v>0.8985202055291455</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -994,10 +994,10 @@
         <v>32</v>
       </c>
       <c r="C31">
-        <v>0.923930449264559</v>
+        <v>0.9333254135636995</v>
       </c>
       <c r="D31">
-        <v>0.8765450433311289</v>
+        <v>0.8577491755291454</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1005,10 +1005,10 @@
         <v>33</v>
       </c>
       <c r="C32">
-        <v>0.948548502264559</v>
+        <v>0.9579434665636994</v>
       </c>
       <c r="D32">
-        <v>0.9175539353311289</v>
+        <v>0.8987580675291454</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1016,10 +1016,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>1.065726943264559</v>
+        <v>1.0751219075637</v>
       </c>
       <c r="C33">
-        <v>1.277716814331129</v>
+        <v>1.258920946529146</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1027,10 +1027,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>1.111666588264559</v>
+        <v>1.1210615525637</v>
       </c>
       <c r="C34">
-        <v>1.512218933331129</v>
+        <v>1.493423065529146</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1038,7 +1038,7 @@
         <v>36</v>
       </c>
       <c r="C35">
-        <v>1.046340567331129</v>
+        <v>1.027544699529146</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1046,10 +1046,10 @@
         <v>37</v>
       </c>
       <c r="C36">
-        <v>0.565715018331129</v>
+        <v>0.5469191505291455</v>
       </c>
       <c r="D36">
-        <v>-0.9912397121624527</v>
+        <v>-0.9817231827224345</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1057,10 +1057,10 @@
         <v>38</v>
       </c>
       <c r="C37">
-        <v>0.630238413331129</v>
+        <v>0.6114425455291455</v>
       </c>
       <c r="D37">
-        <v>-0.9949620201624526</v>
+        <v>-0.9854454907224345</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1068,10 +1068,10 @@
         <v>39</v>
       </c>
       <c r="C38">
-        <v>0.4073451583311289</v>
+        <v>0.3885492905291454</v>
       </c>
       <c r="D38">
-        <v>-0.8968591131624527</v>
+        <v>-0.8873425837224346</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1079,10 +1079,10 @@
         <v>40</v>
       </c>
       <c r="C39">
-        <v>-0.1155150876688711</v>
+        <v>-0.1343109554708546</v>
       </c>
       <c r="D39">
-        <v>-1.095200516162453</v>
+        <v>-1.085683986722434</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1090,10 +1090,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>0.441822470331129</v>
+        <v>0.4230266025291455</v>
       </c>
       <c r="C40">
-        <v>0.1279530128375473</v>
+        <v>0.1374695422775655</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1101,10 +1101,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>0.437053797331129</v>
+        <v>0.4182579295291455</v>
       </c>
       <c r="C41">
-        <v>-0.2426789321624527</v>
+        <v>-0.2331624027224345</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1112,7 +1112,7 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>-0.04277888716245271</v>
+        <v>-0.03326235772243452</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1120,10 +1120,10 @@
         <v>44</v>
       </c>
       <c r="C43">
-        <v>-0.2873174671624527</v>
+        <v>-0.2778009377224345</v>
       </c>
       <c r="D43">
-        <v>-1.175091466501868</v>
+        <v>-1.165608299123972</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1131,10 +1131,10 @@
         <v>45</v>
       </c>
       <c r="C44">
-        <v>-0.6550085641624527</v>
+        <v>-0.6454920347224345</v>
       </c>
       <c r="D44">
-        <v>-1.033768334937675</v>
+        <v>-1.024285167559779</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1142,10 +1142,10 @@
         <v>46</v>
       </c>
       <c r="C45">
-        <v>-0.7198939821624527</v>
+        <v>-0.7103774527224346</v>
       </c>
       <c r="D45">
-        <v>-1.010277427205538</v>
+        <v>-1.000794259827642</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1153,10 +1153,10 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.5106281321624527</v>
+        <v>-0.5011116027224345</v>
       </c>
       <c r="C46">
-        <v>-0.6514899233638731</v>
+        <v>-0.6420067559859775</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1164,10 +1164,10 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.5639247011624527</v>
+        <v>-0.5544081717224345</v>
       </c>
       <c r="C47">
-        <v>-0.7765103153922351</v>
+        <v>-0.7670271480143395</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1175,7 +1175,7 @@
         <v>49</v>
       </c>
       <c r="C48">
-        <v>-0.9320335390585944</v>
+        <v>-0.9225503716806988</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1183,10 +1183,10 @@
         <v>50</v>
       </c>
       <c r="C49">
-        <v>-0.8586530331632335</v>
+        <v>-0.8491698657853378</v>
       </c>
       <c r="D49">
-        <v>0.8525830535100106</v>
+        <v>0.8526545954887239</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1194,10 +1194,10 @@
         <v>51</v>
       </c>
       <c r="C50">
-        <v>-1.200998811033057</v>
+        <v>-1.191515643655161</v>
       </c>
       <c r="D50">
-        <v>1.016878087510011</v>
+        <v>1.016949629488724</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1205,10 +1205,10 @@
         <v>52</v>
       </c>
       <c r="C51">
-        <v>-1.43992425523589</v>
+        <v>-1.430441087857995</v>
       </c>
       <c r="D51">
-        <v>0.8814661535100106</v>
+        <v>0.8815376954887238</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1216,10 +1216,10 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>-1.227393148335633</v>
+        <v>-1.217909980957737</v>
       </c>
       <c r="C52">
-        <v>0.8720822335100106</v>
+        <v>0.8721537754887239</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1227,10 +1227,10 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>-1.274882450912215</v>
+        <v>-1.26539928353432</v>
       </c>
       <c r="C53">
-        <v>0.5556741615100106</v>
+        <v>0.5557457034887239</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1238,7 +1238,7 @@
         <v>55</v>
       </c>
       <c r="C54">
-        <v>0.6389953595100106</v>
+        <v>0.6390669014887239</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1246,10 +1246,10 @@
         <v>56</v>
       </c>
       <c r="C55">
-        <v>0.5245482115100106</v>
+        <v>0.5246197534887239</v>
       </c>
       <c r="D55">
-        <v>0.3271357364848366</v>
+        <v>0.3082097950934801</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1257,10 +1257,10 @@
         <v>57</v>
       </c>
       <c r="C56">
-        <v>0.2427957485100106</v>
+        <v>0.2428672904887239</v>
       </c>
       <c r="D56">
-        <v>0.3237316254848366</v>
+        <v>0.3048056840934801</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1268,10 +1268,10 @@
         <v>58</v>
       </c>
       <c r="C57">
-        <v>0.5513600815100106</v>
+        <v>0.5514316234887239</v>
       </c>
       <c r="D57">
-        <v>0.4532827094848366</v>
+        <v>0.4343567680934801</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1279,10 +1279,10 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>0.3147768615100106</v>
+        <v>0.3148484034887239</v>
       </c>
       <c r="C58">
-        <v>1.007337400484837</v>
+        <v>0.9884114590934802</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1290,10 +1290,10 @@
         <v>60</v>
       </c>
       <c r="B59">
-        <v>0.3294742345100106</v>
+        <v>0.3295457764887239</v>
       </c>
       <c r="C59">
-        <v>1.129468777484837</v>
+        <v>1.11054283609348</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1301,7 +1301,7 @@
         <v>61</v>
       </c>
       <c r="C60">
-        <v>0.6398731814848366</v>
+        <v>0.6209472400934801</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1309,10 +1309,10 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>0.9196994354848367</v>
+        <v>0.9007734940934802</v>
       </c>
       <c r="D61">
-        <v>0.7211232408064123</v>
+        <v>0.7305722247131936</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1320,10 +1320,10 @@
         <v>63</v>
       </c>
       <c r="C62">
-        <v>0.5358974354848366</v>
+        <v>0.5169714940934801</v>
       </c>
       <c r="D62">
-        <v>0.8327439828064123</v>
+        <v>0.8421929667131937</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1331,10 +1331,10 @@
         <v>64</v>
       </c>
       <c r="C63">
-        <v>0.2304598224848366</v>
+        <v>0.2115338810934801</v>
       </c>
       <c r="D63">
-        <v>0.4693786418064123</v>
+        <v>0.4788276257131937</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1342,10 +1342,10 @@
         <v>65</v>
       </c>
       <c r="B64">
-        <v>0.06955711048483661</v>
+        <v>0.0506311690934801</v>
       </c>
       <c r="C64">
-        <v>-0.2052381541935878</v>
+        <v>-0.1957891702868064</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1353,10 +1353,10 @@
         <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.01077749951516341</v>
+        <v>-0.02970344090651991</v>
       </c>
       <c r="C65">
-        <v>-0.5895316931935877</v>
+        <v>-0.5800827092868064</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1364,7 +1364,7 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>-0.2099133951935877</v>
+        <v>-0.2004644112868063</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1372,7 +1372,7 @@
         <v>68</v>
       </c>
       <c r="C67">
-        <v>-0.1893556991935877</v>
+        <v>-0.1799067152868063</v>
       </c>
       <c r="D67">
         <v>0.5381773248377819</v>
@@ -1383,7 +1383,7 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>-0.5022237831935876</v>
+        <v>-0.4927747992868063</v>
       </c>
       <c r="D68">
         <v>0.6060294938377819</v>
@@ -1394,7 +1394,7 @@
         <v>70</v>
       </c>
       <c r="C69">
-        <v>-0.3513784001935877</v>
+        <v>-0.3419294162868063</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1410,7 +1410,7 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.3153648271935877</v>
+        <v>-0.3059158432868063</v>
       </c>
       <c r="C71">
         <v>1.143160669837782</v>
@@ -1421,7 +1421,7 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.2764766371935877</v>
+        <v>-0.2670276532868063</v>
       </c>
       <c r="C72">
         <v>1.142129412837782</v>
@@ -1443,7 +1443,7 @@
         <v>1.107268178837782</v>
       </c>
       <c r="D74">
-        <v>-0.4561009603890247</v>
+        <v>-0.4083682634916527</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1454,7 +1454,7 @@
         <v>1.003824619837782</v>
       </c>
       <c r="D75">
-        <v>-0.5811445523890247</v>
+        <v>-0.5334118554916527</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1465,7 +1465,7 @@
         <v>0.411496762837782</v>
       </c>
       <c r="D76">
-        <v>-0.5094533513890247</v>
+        <v>-0.4617206544916527</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1476,7 +1476,7 @@
         <v>-0.007047367162217988</v>
       </c>
       <c r="D77">
-        <v>-0.8128361843890247</v>
+        <v>-0.7651034874916527</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1487,7 +1487,7 @@
         <v>0.443267296837782</v>
       </c>
       <c r="C78">
-        <v>-0.2856949653890247</v>
+        <v>-0.2379622684916527</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1498,7 +1498,7 @@
         <v>0.5544511758377819</v>
       </c>
       <c r="C79">
-        <v>-0.4612755963890247</v>
+        <v>-0.4135428994916527</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1506,7 +1506,7 @@
         <v>81</v>
       </c>
       <c r="C80">
-        <v>-0.5253523983890247</v>
+        <v>-0.4776197014916527</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,10 +1514,10 @@
         <v>82</v>
       </c>
       <c r="C81">
-        <v>-0.2513871743890247</v>
+        <v>-0.2036544774916527</v>
       </c>
       <c r="D81">
-        <v>0.7031119392360052</v>
+        <v>0.5987332491758083</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1525,10 +1525,10 @@
         <v>83</v>
       </c>
       <c r="C82">
-        <v>-0.2476045163890248</v>
+        <v>-0.1998718194916527</v>
       </c>
       <c r="D82">
-        <v>0.7145379752360053</v>
+        <v>0.6101592851758083</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1536,10 +1536,10 @@
         <v>84</v>
       </c>
       <c r="C83">
-        <v>-0.2311459983890247</v>
+        <v>-0.1834133014916527</v>
       </c>
       <c r="D83">
-        <v>0.6341935262360052</v>
+        <v>0.5298148361758083</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1547,10 +1547,10 @@
         <v>85</v>
       </c>
       <c r="C84">
-        <v>-0.009821497389024714</v>
+        <v>0.03791119950834732</v>
       </c>
       <c r="D84">
-        <v>0.6959160192360053</v>
+        <v>0.5915373291758083</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1558,10 +1558,10 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.1033763483890247</v>
+        <v>-0.05564365149165268</v>
       </c>
       <c r="C85">
-        <v>0.5174219002360053</v>
+        <v>0.4130432101758083</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1569,10 +1569,10 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.01419920438902478</v>
+        <v>0.03353349250834725</v>
       </c>
       <c r="C86">
-        <v>-0.2244860877639947</v>
+        <v>-0.3288647778241918</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1580,7 +1580,7 @@
         <v>88</v>
       </c>
       <c r="C87">
-        <v>0.1542060022360053</v>
+        <v>0.04982731217580827</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1588,7 +1588,10 @@
         <v>89</v>
       </c>
       <c r="C88">
-        <v>0.4412813462360053</v>
+        <v>0.3369026561758083</v>
+      </c>
+      <c r="D88">
+        <v>0.7254492243564907</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1596,7 +1599,10 @@
         <v>90</v>
       </c>
       <c r="C89">
-        <v>0.4689256712360053</v>
+        <v>0.3645469811758083</v>
+      </c>
+      <c r="D89">
+        <v>0.7215746373564907</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1604,7 +1610,10 @@
         <v>91</v>
       </c>
       <c r="C90">
-        <v>0.2280757452360053</v>
+        <v>0.1236970551758083</v>
+      </c>
+      <c r="D90">
+        <v>0.5311946523564907</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1612,7 +1621,10 @@
         <v>92</v>
       </c>
       <c r="C91">
-        <v>0.3139414512360053</v>
+        <v>0.2095627611758083</v>
+      </c>
+      <c r="D91">
+        <v>0.5539812373564907</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1620,7 +1632,10 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>0.02261627023600529</v>
+        <v>-0.08176241982419175</v>
+      </c>
+      <c r="C92">
+        <v>0.1753415943564907</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1628,27 +1643,42 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0212972287639947</v>
+        <v>-0.1256759188241917</v>
+      </c>
+      <c r="C93">
+        <v>0.2651053283564908</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="C94">
+        <v>0.08763596535649075</v>
+      </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="C95">
+        <v>0.1003532183564907</v>
+      </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="C96">
+        <v>-0.02418658464350926</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>98</v>
+      </c>
+      <c r="C97">
+        <v>0.2001520573564908</v>
       </c>
     </row>
   </sheetData>
